--- a/data/trans_bre/P1424_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1424_2016_2023-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.86756454825277</v>
+        <v>6.144990586292755</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.147928201487346</v>
+        <v>4.038126666385144</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.628249325924226</v>
+        <v>1.775292520695792</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4708673565138513</v>
+        <v>0.5071957582813311</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.44971419575187</v>
+        <v>10.46748004282663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.200783061873805</v>
+        <v>9.150730649138264</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7.207141222904319</v>
+        <v>6.62494552042594</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.82543242870475</v>
+        <v>1.817104354594364</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>4.050895535974026</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.963893693046827</v>
+        <v>4.963893693046825</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.166266224934043</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1.351338051264223</v>
+        <v>1.351338051264222</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.938766635066234</v>
+        <v>2.940974234636087</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.608559851623495</v>
+        <v>3.530901326865888</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.237465870228603</v>
+        <v>1.22510638910243</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8062602975806632</v>
+        <v>0.7949406341108111</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.47492020932618</v>
+        <v>5.382103413095225</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.193739612418205</v>
+        <v>6.32208344842764</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.642875090239291</v>
+        <v>3.554217668191624</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.017708279000872</v>
+        <v>2.070525500208582</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>0.07279363405708165</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.78934930363884</v>
+        <v>1.789349303638841</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.04897561364848116</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.397727690719177</v>
+        <v>0.3977276907191771</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.453227081125516</v>
+        <v>-1.622224772669155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6092803783834224</v>
+        <v>-0.8825574538307169</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.6691905461353079</v>
+        <v>-0.6524566924824849</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1128214954842518</v>
+        <v>-0.141558078297165</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.415198122127955</v>
+        <v>1.433138690686973</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.021292498585239</v>
+        <v>4.046965936266454</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>2.050561774374354</v>
+        <v>2.120347120997972</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.298856735100535</v>
+        <v>1.245203032690465</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>2.420232279636751</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.133304415804064</v>
+        <v>1.133304415804065</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.675992553652743</v>
+        <v>3.682027670358935</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.925062999799252</v>
+        <v>3.750406883591398</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.579277666545024</v>
+        <v>1.622835703642819</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.8088243631350382</v>
+        <v>0.7685464824709131</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.667090558493122</v>
+        <v>5.650591731549668</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.08449208650482</v>
+        <v>5.898758651019978</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.584704489165154</v>
+        <v>3.638163205911178</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.646208856998795</v>
+        <v>1.580370916069914</v>
       </c>
     </row>
     <row r="16">
